--- a/CardFormatter/Data/Infamous.18/Cards.Datafile.xlsx
+++ b/CardFormatter/Data/Infamous.18/Cards.Datafile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mike\CardGenerator\CardFormatter\Data\Infamous.18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\CardGenerator\CardFormatter\Data\Infamous.18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE00CB71-43A2-41AE-8AFF-B15042220846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A11CF-EADE-4C6E-A53A-D6B5B8D64E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fronts" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="240">
   <si>
     <t>image</t>
   </si>
@@ -46,39 +46,18 @@
     <t>trigger1</t>
   </si>
   <si>
-    <t>triggerValue1</t>
-  </si>
-  <si>
     <t>rules1</t>
   </si>
   <si>
-    <t>boostable1</t>
-  </si>
-  <si>
-    <t>rulesValue1</t>
-  </si>
-  <si>
     <t>trigger2</t>
   </si>
   <si>
-    <t>triggerValue2</t>
-  </si>
-  <si>
     <t>rules2</t>
   </si>
   <si>
-    <t>boostable2</t>
-  </si>
-  <si>
-    <t>rulesValue2</t>
-  </si>
-  <si>
     <t>IntelligentRodents.png</t>
   </si>
   <si>
-    <t>flesh</t>
-  </si>
-  <si>
     <t>Before you graverob</t>
   </si>
   <si>
@@ -106,9 +85,6 @@
     <t>Always</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>BoneTeleportationNetwork.png</t>
   </si>
   <si>
@@ -130,9 +106,6 @@
     <t>Biggerizer</t>
   </si>
   <si>
-    <t>trash</t>
-  </si>
-  <si>
     <t>Rant.</t>
   </si>
   <si>
@@ -178,9 +151,6 @@
     <t>Before you Craft</t>
   </si>
   <si>
-    <t>steam</t>
-  </si>
-  <si>
     <t>After you play a wild role</t>
   </si>
   <si>
@@ -217,9 +187,6 @@
     <t>Your unfinished metal gadgets provide you with infamy.</t>
   </si>
   <si>
-    <t>electrical</t>
-  </si>
-  <si>
     <t>Draw a card per minion you have, and discard every card in the morgue.</t>
   </si>
   <si>
@@ -259,9 +226,6 @@
     <t>Seven Minute Boots</t>
   </si>
   <si>
-    <t>metal</t>
-  </si>
-  <si>
     <t>At the start of your turn</t>
   </si>
   <si>
@@ -301,9 +265,6 @@
     <t>DrDoomDevice.png</t>
   </si>
   <si>
-    <t>chemical</t>
-  </si>
-  <si>
     <t>ConcotionOfHappiness.png</t>
   </si>
   <si>
@@ -445,9 +406,6 @@
     <t>Zombo-Crown</t>
   </si>
   <si>
-    <t>the Dr Doom Device</t>
-  </si>
-  <si>
     <t>Skeleporter</t>
   </si>
   <si>
@@ -529,78 +487,6 @@
     <t>When you rebuild</t>
   </si>
   <si>
-    <t>1.3.</t>
-  </si>
-  <si>
-    <t>1.4.</t>
-  </si>
-  <si>
-    <t>1.5.</t>
-  </si>
-  <si>
-    <t>1.6.</t>
-  </si>
-  <si>
-    <t>1.7.</t>
-  </si>
-  <si>
-    <t>1.8.</t>
-  </si>
-  <si>
-    <t>1.9.</t>
-  </si>
-  <si>
-    <t>1.10.</t>
-  </si>
-  <si>
-    <t>1.11.</t>
-  </si>
-  <si>
-    <t>1.12.</t>
-  </si>
-  <si>
-    <t>1.13.</t>
-  </si>
-  <si>
-    <t>1.14.</t>
-  </si>
-  <si>
-    <t>1.15.</t>
-  </si>
-  <si>
-    <t>1.16.</t>
-  </si>
-  <si>
-    <t>1.17.</t>
-  </si>
-  <si>
-    <t>1.18.</t>
-  </si>
-  <si>
-    <t>1.19.</t>
-  </si>
-  <si>
-    <t>1.20.</t>
-  </si>
-  <si>
-    <t>1.21.</t>
-  </si>
-  <si>
-    <t>1.22.</t>
-  </si>
-  <si>
-    <t>1.23.</t>
-  </si>
-  <si>
-    <t>1.24.</t>
-  </si>
-  <si>
-    <t>1.2.</t>
-  </si>
-  <si>
-    <t>rules</t>
-  </si>
-  <si>
     <t>To win you must have 4 finished gadgets of the same type.</t>
   </si>
   <si>
@@ -625,34 +511,247 @@
     <t>Whenever you grave rob, the mob grows by 1.</t>
   </si>
   <si>
-    <t>When you rebuild, you may only add half as many upgrades to the gadget as you normally would be able to (round up).</t>
-  </si>
-  <si>
     <t>When you Craft, you may build as many times as you want, but every build grows the mob by 1.</t>
   </si>
   <si>
-    <t>When enhancing, treat timing values as if they were 1 less (minimum 0), but rule values as 1 more.</t>
-  </si>
-  <si>
-    <t>Your minion limit is one less than usual</t>
-  </si>
-  <si>
     <t>When you transmute a card, at the end of the turn discard it.</t>
   </si>
   <si>
     <t>If you can activate an ability you must.</t>
   </si>
   <si>
-    <t>Start the game with three cards instead of 4</t>
-  </si>
-  <si>
-    <t>Every time the deck runs out, the mob grows by 1</t>
-  </si>
-  <si>
-    <t>The infamy of all completed gadgets is 1</t>
-  </si>
-  <si>
-    <t>To complete a gadget you must have one material of each type on the gadget.</t>
+    <t>FleshTop.png</t>
+  </si>
+  <si>
+    <t>TrashTop.png</t>
+  </si>
+  <si>
+    <t>SteamTop.png</t>
+  </si>
+  <si>
+    <t>ElectricalTop.png</t>
+  </si>
+  <si>
+    <t>MetalTop.png</t>
+  </si>
+  <si>
+    <t>ChemicalTop.png</t>
+  </si>
+  <si>
+    <t>TrashBottom.png</t>
+  </si>
+  <si>
+    <t>SteamBottom.png</t>
+  </si>
+  <si>
+    <t>ElectricalBottom.png</t>
+  </si>
+  <si>
+    <t>MetalBottom.png</t>
+  </si>
+  <si>
+    <t>ChemicalBottom.png</t>
+  </si>
+  <si>
+    <t>FleshBottom.png</t>
+  </si>
+  <si>
+    <t>To complete a gadget you must have one extra material on the gadget.</t>
+  </si>
+  <si>
+    <t>Minion Master</t>
+  </si>
+  <si>
+    <t>Collector</t>
+  </si>
+  <si>
+    <t>Minion Union</t>
+  </si>
+  <si>
+    <t>Hecklers</t>
+  </si>
+  <si>
+    <t>Sorcerers Stone</t>
+  </si>
+  <si>
+    <t>Costly Gadgets</t>
+  </si>
+  <si>
+    <t>Upgrade Locks</t>
+  </si>
+  <si>
+    <t>Anti-Craft</t>
+  </si>
+  <si>
+    <t>Enhancing cost 1 more.</t>
+  </si>
+  <si>
+    <t>Corrosive Alchemy</t>
+  </si>
+  <si>
+    <t>Moronic Minions</t>
+  </si>
+  <si>
+    <t>Manditory Moves</t>
+  </si>
+  <si>
+    <t>Poverty</t>
+  </si>
+  <si>
+    <t>Impatient Mob</t>
+  </si>
+  <si>
+    <t>Blasé Mob</t>
+  </si>
+  <si>
+    <t>Gold Plating</t>
+  </si>
+  <si>
+    <t>When you gain a minion, discard a card.</t>
+  </si>
+  <si>
+    <t>When you rebuild, you may only add half as many upgrades to the gadget as normal (round up).</t>
+  </si>
+  <si>
+    <t>Unruly Mob</t>
+  </si>
+  <si>
+    <t>Discard a card from the morgue whenever the mob grows.</t>
+  </si>
+  <si>
+    <t>Vandals</t>
+  </si>
+  <si>
+    <t>Remove an upgrade whenever the mob grows.</t>
+  </si>
+  <si>
+    <t>Pollution</t>
+  </si>
+  <si>
+    <t>To win you must have 4 gadgets with upgrades.</t>
+  </si>
+  <si>
+    <t>Discard a card from the morgue whenever you activate an ability.</t>
+  </si>
+  <si>
+    <t>The infamy of all completed gadgets is 1.</t>
+  </si>
+  <si>
+    <t>Every time the deck runs out, the mob grows by 1.</t>
+  </si>
+  <si>
+    <t>Start the game with three cards instead of 4.</t>
+  </si>
+  <si>
+    <t>Your minion limit is one less than usual.</t>
+  </si>
+  <si>
+    <t>To win you must have a gadget with 3 enhancements.</t>
+  </si>
+  <si>
+    <t>Posh Mob</t>
+  </si>
+  <si>
+    <t>1.1.Anti-Revivification</t>
+  </si>
+  <si>
+    <t>1.3.Collector</t>
+  </si>
+  <si>
+    <t>1.6.Hecklers</t>
+  </si>
+  <si>
+    <t>1.10.Anti-Craft</t>
+  </si>
+  <si>
+    <t>1.11.Single-Purpose</t>
+  </si>
+  <si>
+    <t>1.15.Poverty</t>
+  </si>
+  <si>
+    <t>1.19.Embezzlement</t>
+  </si>
+  <si>
+    <t>1.21.Vandals</t>
+  </si>
+  <si>
+    <t>1.22.Pollution</t>
+  </si>
+  <si>
+    <t>1.24.Swiss-Army-Style</t>
+  </si>
+  <si>
+    <t>1.2.Minion_Master</t>
+  </si>
+  <si>
+    <t>1.4.Minion_Union</t>
+  </si>
+  <si>
+    <t>1.5.Sorcerers_Stone</t>
+  </si>
+  <si>
+    <t>1.7.Costly_Gadgets</t>
+  </si>
+  <si>
+    <t>1.9.Upgrade_Locks</t>
+  </si>
+  <si>
+    <t>1.12.Moronic_Minions</t>
+  </si>
+  <si>
+    <t>1.13.Corrosive_Alchemy</t>
+  </si>
+  <si>
+    <t>1.14.Manditory_Moves</t>
+  </si>
+  <si>
+    <t>1.16.Impatient_Mob</t>
+  </si>
+  <si>
+    <t>1.17.Blasé_Mob</t>
+  </si>
+  <si>
+    <t>1.18.Gold_Plating</t>
+  </si>
+  <si>
+    <t>1.20.Unruly_Mob</t>
+  </si>
+  <si>
+    <t>1.23.Posh_Mob</t>
+  </si>
+  <si>
+    <t>backTitle</t>
+  </si>
+  <si>
+    <t>backRules</t>
+  </si>
+  <si>
+    <t>Swiss-Army Style</t>
+  </si>
+  <si>
+    <t>Church Grim</t>
+  </si>
+  <si>
+    <t>1.8.Church_Grim</t>
+  </si>
+  <si>
+    <t>Do Not Revivify</t>
+  </si>
+  <si>
+    <t>Single Purpose</t>
+  </si>
+  <si>
+    <t>Embezzlers</t>
+  </si>
+  <si>
+    <t>Dr. Doom Device</t>
+  </si>
+  <si>
+    <t>background</t>
+  </si>
+  <si>
+    <t>BackBackground.png</t>
   </si>
 </sst>
 </file>
@@ -1515,38 +1614,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B62FD146-FBB3-45C6-AF0D-94CB477F971D}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M25"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.85546875" customWidth="1"/>
-    <col min="13" max="13" width="70.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="2.85546875" customWidth="1"/>
+    <col min="7" max="7" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1566,1051 +1660,705 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>140</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>237</v>
+      </c>
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>112</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
-        <v>127</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12">
-        <v>2</v>
-      </c>
-      <c r="K12" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>111</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>153</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>107</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" t="s">
-        <v>129</v>
-      </c>
-      <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>37</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="I25" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
-        <v>58</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>59</v>
-      </c>
-      <c r="O20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J21">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>134</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>21</v>
-      </c>
-      <c r="O21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>49</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>102</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
-        <v>62</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
-        <v>103</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K6:O6 F3:O5 F16:N16 F7:O15 F23:N23 F24:O25 F17:O22">
+  <conditionalFormatting sqref="H6:I6 F3:I5 F7:I25">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="token">
       <formula>NOT(ISERROR(SEARCH("token",F3)))</formula>
     </cfRule>
@@ -2621,209 +2369,371 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B25" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="129.7109375" customWidth="1"/>
+    <col min="1" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="129.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B19" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D19" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D22" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D23" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>182</v>
-      </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>183</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>185</v>
-      </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>